--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="12795"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,19 +15,119 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zsbin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+备注</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
-    <t>ID</t>
+    <t>id</t>
   </si>
   <si>
-    <t>值</t>
+    <t>value</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>remark</t>
   </si>
   <si>
     <t>弹道通用飞行速度</t>
+  </si>
+  <si>
+    <t>地图y轴基线值</t>
+  </si>
+  <si>
+    <t>英雄放置的x坐标</t>
+  </si>
+  <si>
+    <t>出兵位置的x轴</t>
+  </si>
+  <si>
+    <t>英雄的放大倍数</t>
+  </si>
+  <si>
+    <t>怪物攻击时站位的间距</t>
+  </si>
+  <si>
+    <t>英雄无敌（1为无敌，2为正常）</t>
+  </si>
+  <si>
+    <t>魂晶获取的倍数</t>
+  </si>
+  <si>
+    <t>魂气获取的倍数</t>
   </si>
 </sst>
 </file>
@@ -35,12 +135,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,7 +152,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -64,9 +186,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,14 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,32 +231,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,36 +244,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,19 +255,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,11 +496,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,30 +562,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -477,21 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -500,153 +584,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,15 +1095,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1024,21 +1118,110 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>100001</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="B3">
+        <v>-1.738</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>100003</v>
+      </c>
+      <c r="B4">
+        <v>-5.23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>100004</v>
+      </c>
+      <c r="B5">
+        <v>7.44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>100005</v>
+      </c>
+      <c r="B6">
+        <v>0.3703687</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>100006</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>100007</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>100008</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>100009</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,21 +158,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,39 +178,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,60 +292,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,9 +537,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,26 +572,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,24 +593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,106 +613,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,25 +730,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1134,7 +1134,7 @@
         <v>100002</v>
       </c>
       <c r="B3">
-        <v>-1.738</v>
+        <v>-0.738</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -135,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -146,20 +146,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,23 +165,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,35 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -273,13 +257,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +269,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,12 +302,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,7 +416,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,157 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,21 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -531,6 +516,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +550,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -569,30 +593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1123,7 +1123,7 @@
         <v>100001</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>id</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>魂气获取的倍数</t>
+  </si>
+  <si>
+    <t>开始关卡</t>
+  </si>
+  <si>
+    <t>开始等级</t>
+  </si>
+  <si>
+    <t>开始魂晶</t>
   </si>
 </sst>
 </file>
@@ -137,8 +146,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -146,6 +155,142 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,142 +301,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -308,31 +317,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,145 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,8 +507,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -523,19 +534,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,22 +568,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,16 +589,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +610,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,7 +622,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,10 +631,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,112 +643,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1134,7 +1143,7 @@
         <v>100002</v>
       </c>
       <c r="B3">
-        <v>-0.738</v>
+        <v>-2.5</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1189,7 +1198,7 @@
         <v>100007</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1215,6 +1224,39 @@
       </c>
       <c r="C10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>100010</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>100011</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>100012</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>开始魂晶</t>
+  </si>
+  <si>
+    <t>产生卡牌时间单位s</t>
+  </si>
+  <si>
+    <t>n刀=1点能量</t>
   </si>
 </sst>
 </file>
@@ -145,9 +151,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,24 +178,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,13 +205,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,22 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,14 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,33 +240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +254,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,181 +323,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,11 +513,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,24 +546,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +560,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,16 +595,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,28 +628,28 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,103 +658,103 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1257,6 +1263,28 @@
       </c>
       <c r="C13" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>100013</v>
+      </c>
+      <c r="B14">
+        <v>30.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>100014</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,8 +150,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -164,6 +164,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -172,6 +187,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,14 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,17 +232,48 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,9 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,22 +294,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,59 +307,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,13 +317,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +461,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,151 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,15 +508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,15 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +547,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -575,6 +572,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,21 +608,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,31 +628,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,100 +661,100 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,12 +150,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -173,21 +201,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,14 +224,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -210,37 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,29 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -285,16 +253,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +284,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,41 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +560,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -616,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,138 +635,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,7 +1126,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1177,14 +1190,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="1">
         <v>100005</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.3703687</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,66 +172,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,63 +262,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,19 +324,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,13 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,145 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +533,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -551,17 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,26 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,141 +635,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1126,7 +1123,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1173,7 +1170,7 @@
         <v>100003</v>
       </c>
       <c r="B4">
-        <v>-5.23</v>
+        <v>-4.23</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1197,7 +1194,7 @@
       <c r="B6" s="1">
         <v>0.3703687</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>id</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>n刀=1点能量</t>
+  </si>
+  <si>
+    <t>卡槽数量，最大为10，最小为1</t>
+  </si>
+  <si>
+    <t>牌库数量</t>
   </si>
 </sst>
 </file>
@@ -150,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,6 +178,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,15 +237,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,27 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -231,24 +267,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,24 +290,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,29 +316,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,79 +330,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,103 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,28 +542,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,8 +566,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +594,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1295,6 +1301,28 @@
       </c>
       <c r="C15" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>100015</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>100016</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -130,13 +130,13 @@
     <t>魂气获取的倍数</t>
   </si>
   <si>
-    <t>开始关卡</t>
-  </si>
-  <si>
-    <t>开始等级</t>
-  </si>
-  <si>
-    <t>开始魂晶</t>
+    <t>开始关卡，-1表示直接读数据库</t>
+  </si>
+  <si>
+    <t>开始等级，-1表示直接读数据库</t>
+  </si>
+  <si>
+    <t>开始魂晶，-1表示直接读数据库</t>
   </si>
   <si>
     <t>产生卡牌时间单位s</t>
@@ -156,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,15 +178,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,106 +307,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,187 +330,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,11 +539,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,15 +580,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -583,17 +589,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,8 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1253,7 +1253,7 @@
         <v>100010</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1264,7 +1264,7 @@
         <v>100011</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1275,7 +1275,7 @@
         <v>100012</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,8 +158,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -177,31 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,25 +214,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,18 +236,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,15 +276,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,25 +330,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,157 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,21 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,13 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,17 +596,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1319,7 +1319,7 @@
         <v>100016</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>牌库数量</t>
+  </si>
+  <si>
+    <t>可以轮回点的最低关卡</t>
   </si>
 </sst>
 </file>
@@ -156,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -177,7 +180,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -201,19 +271,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -221,93 +300,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,13 +333,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,169 +453,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +524,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,6 +590,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -573,39 +609,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -629,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1323,6 +1326,17 @@
       </c>
       <c r="C17" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>100017</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>可以轮回点的最低关卡</t>
+  </si>
+  <si>
+    <t>每分钟离线产出</t>
   </si>
 </sst>
 </file>
@@ -161,8 +164,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -181,14 +184,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,19 +256,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,31 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,62 +319,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,55 +336,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,127 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,17 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,7 +543,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,9 +565,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,15 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -613,17 +627,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1337,6 +1340,17 @@
       </c>
       <c r="C18" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>100018</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30000" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>id</t>
   </si>
@@ -149,12 +149,6 @@
   </si>
   <si>
     <t>牌库数量</t>
-  </si>
-  <si>
-    <t>可以轮回点的最低关卡</t>
-  </si>
-  <si>
-    <t>每分钟离线产出</t>
   </si>
 </sst>
 </file>
@@ -162,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -183,8 +177,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,100 +236,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,25 +260,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,85 +330,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,97 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,24 +521,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,35 +541,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +577,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1329,28 +1323,6 @@
       </c>
       <c r="C17" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>100017</v>
-      </c>
-      <c r="B18">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>100018</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -201,121 +307,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,13 +330,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,169 +486,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +521,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,8 +550,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -582,7 +593,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,17 +621,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -629,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>牌库数量</t>
+  </si>
+  <si>
+    <t>掉落物品飞行速度</t>
   </si>
 </sst>
 </file>
@@ -156,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -177,8 +180,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +218,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -208,14 +272,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,39 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,58 +323,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -330,55 +333,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,13 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,97 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,15 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,26 +544,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +562,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +609,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -629,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1323,6 +1326,17 @@
       </c>
       <c r="C17" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>100017</v>
+      </c>
+      <c r="B18">
+        <v>600</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385"/>
+    <workbookView windowWidth="26100" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>牌库数量</t>
+  </si>
+  <si>
+    <t>开启轮回的关卡</t>
   </si>
   <si>
     <t>掉落物品飞行速度</t>
@@ -160,9 +163,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -180,23 +183,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,7 +283,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,92 +321,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,55 +336,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,127 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,30 +527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,17 +547,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -586,11 +554,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,17 +599,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1333,10 +1336,21 @@
         <v>100017</v>
       </c>
       <c r="B18">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>100018</v>
+      </c>
+      <c r="B19">
+        <v>600</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26100" windowHeight="14145"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,8 +162,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -184,22 +184,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,59 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -273,59 +326,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -336,19 +336,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,163 +498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,17 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +543,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -569,17 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,31 +598,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1193,7 +1193,7 @@
         <v>100004</v>
       </c>
       <c r="B5">
-        <v>7.44</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30000" windowHeight="14145"/>
+    <workbookView windowWidth="26100" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>掉落物品飞行速度</t>
+  </si>
+  <si>
+    <t>引导关卡数量（从-9到0都是引导）</t>
   </si>
 </sst>
 </file>
@@ -162,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,61 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,59 +202,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,11 +291,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -336,31 +339,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,31 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,24 +513,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -445,78 +520,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,8 +536,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +577,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,38 +599,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:C5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1351,6 +1354,17 @@
       </c>
       <c r="C19" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>100019</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26100" windowHeight="14145"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -187,7 +187,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,127 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -339,13 +339,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +435,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,157 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,24 +535,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,41 +596,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -630,6 +615,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>id</t>
   </si>
@@ -154,10 +154,34 @@
     <t>开启轮回的关卡</t>
   </si>
   <si>
-    <t>掉落物品飞行速度</t>
+    <t>水晶飞行速度</t>
   </si>
   <si>
     <t>引导关卡数量（从-9到0都是引导）</t>
+  </si>
+  <si>
+    <t>卡牌面板长按的时间</t>
+  </si>
+  <si>
+    <t>第一条特殊属性生效的强化等级</t>
+  </si>
+  <si>
+    <t>第二条特殊属性生效的强化等级</t>
+  </si>
+  <si>
+    <t>第三条特殊属性生效的强化等级</t>
+  </si>
+  <si>
+    <t>第四条特殊属性生效的强化等级</t>
+  </si>
+  <si>
+    <t>第五条特殊属性生效的强化等级</t>
+  </si>
+  <si>
+    <t>第六条特殊属性生效的强化等级</t>
+  </si>
+  <si>
+    <t>物品飞行速度</t>
   </si>
 </sst>
 </file>
@@ -165,12 +189,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +204,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -187,6 +217,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -200,19 +245,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,47 +275,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,39 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +321,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -339,19 +369,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,163 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,35 +560,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,6 +579,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -588,15 +622,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,17 +641,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,141 +680,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1365,6 +1401,94 @@
       </c>
       <c r="C20" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>100020</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>100021</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>100022</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>100023</v>
+      </c>
+      <c r="B24" s="2">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>100024</v>
+      </c>
+      <c r="B25" s="2">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>100025</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>100026</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>100030</v>
+      </c>
+      <c r="B28" s="2">
+        <v>300</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D599A207-DC5A-45EF-922B-B85EAE1E6FFE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30000" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -36,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,13 +51,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -58,6 +67,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,13 +75,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -80,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -92,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -187,14 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +211,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,349 +219,40 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -562,251 +260,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -824,61 +280,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1165,25 +577,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.375"/>
     <col min="3" max="3" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -1205,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -1216,18 +628,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>100003</v>
       </c>
       <c r="B4">
-        <v>-4.23</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100004</v>
       </c>
@@ -1238,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>100005</v>
       </c>
@@ -1249,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>100006</v>
       </c>
@@ -1260,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>100007</v>
       </c>
@@ -1271,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>100008</v>
       </c>
@@ -1282,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>100009</v>
       </c>
@@ -1293,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>100010</v>
       </c>
@@ -1304,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>100011</v>
       </c>
@@ -1315,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>100012</v>
       </c>
@@ -1326,7 +738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>100013</v>
       </c>
@@ -1337,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>100014</v>
       </c>
@@ -1348,7 +760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>100015</v>
       </c>
@@ -1359,7 +771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>100016</v>
       </c>
@@ -1370,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>100017</v>
       </c>
@@ -1381,7 +793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>100018</v>
       </c>
@@ -1392,7 +804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>100019</v>
       </c>
@@ -1403,18 +815,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>100020</v>
       </c>
       <c r="B21" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>100021</v>
       </c>
@@ -1425,7 +837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>100022</v>
       </c>
@@ -1436,7 +848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>100023</v>
       </c>
@@ -1447,7 +859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>100024</v>
       </c>
@@ -1458,7 +870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>100025</v>
       </c>
@@ -1469,7 +881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>100026</v>
       </c>
@@ -1480,55 +892,49 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>100030</v>
       </c>
       <c r="B28" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D599A207-DC5A-45EF-922B-B85EAE1E6FFE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421C2884-75F0-4499-B19D-513574D398FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,7 +831,7 @@
         <v>100021</v>
       </c>
       <c r="B22" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
@@ -842,7 +842,7 @@
         <v>100022</v>
       </c>
       <c r="B23" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>
@@ -853,7 +853,7 @@
         <v>100023</v>
       </c>
       <c r="B24" s="2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
@@ -864,7 +864,7 @@
         <v>100024</v>
       </c>
       <c r="B25" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
@@ -875,7 +875,7 @@
         <v>100025</v>
       </c>
       <c r="B26" s="2">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
@@ -886,7 +886,7 @@
         <v>100026</v>
       </c>
       <c r="B27" s="2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>28</v>

--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1202\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421C2884-75F0-4499-B19D-513574D398FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -43,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,14 +43,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -67,7 +58,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -75,14 +65,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -91,7 +80,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -104,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>id</t>
   </si>
@@ -194,13 +182,25 @@
   </si>
   <si>
     <t>物品飞行速度</t>
+  </si>
+  <si>
+    <t>打字机的打字时间间隔(ms)</t>
+  </si>
+  <si>
+    <t>离开游戏进行提示的离线奖励的最短时间（min）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,7 +211,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -219,40 +218,349 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -260,13 +568,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,21 +826,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -577,25 +1168,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="10.375"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -617,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -628,18 +1219,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>100003</v>
       </c>
       <c r="B4">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>100004</v>
       </c>
@@ -650,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1">
         <v>100005</v>
       </c>
@@ -661,7 +1252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>100006</v>
       </c>
@@ -672,7 +1263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>100007</v>
       </c>
@@ -683,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>100008</v>
       </c>
@@ -694,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>100009</v>
       </c>
@@ -705,7 +1296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>100010</v>
       </c>
@@ -716,7 +1307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>100011</v>
       </c>
@@ -727,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>100012</v>
       </c>
@@ -738,7 +1329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>100013</v>
       </c>
@@ -749,7 +1340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>100014</v>
       </c>
@@ -760,7 +1351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>100015</v>
       </c>
@@ -771,7 +1362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>100016</v>
       </c>
@@ -782,7 +1373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>100017</v>
       </c>
@@ -793,7 +1384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>100018</v>
       </c>
@@ -804,7 +1395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>100019</v>
       </c>
@@ -815,126 +1406,154 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>100020</v>
       </c>
       <c r="B21" s="2">
         <v>100</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>100021</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>100022</v>
       </c>
       <c r="B23" s="2">
         <v>50</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>100023</v>
       </c>
       <c r="B24" s="2">
         <v>100</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>100024</v>
       </c>
       <c r="B25" s="2">
         <v>200</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>100025</v>
       </c>
       <c r="B26" s="2">
         <v>300</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>100026</v>
       </c>
       <c r="B27" s="2">
         <v>500</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>100030</v>
       </c>
       <c r="B28" s="2">
         <v>600</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>100031</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>100032</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/z-杂项表.xlsx
+++ b/other/配置表/z-杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -222,7 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -230,14 +229,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -246,28 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,23 +268,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,6 +327,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -319,42 +351,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,13 +375,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +471,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,12 +519,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,13 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,97 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +566,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,11 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,31 +638,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +657,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -674,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +686,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,14 +1176,14 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="10.375"/>
-    <col min="3" max="3" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>100004</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1422,7 +1422,7 @@
         <v>100021</v>
       </c>
       <c r="B22" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
@@ -1499,7 +1499,7 @@
         <v>100031</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
